--- a/ozone/ANO-RCC-MB/ozone_159.00/ozone_159.00_energies.xlsx
+++ b/ozone/ANO-RCC-MB/ozone_159.00/ozone_159.00_energies.xlsx
@@ -447,7 +447,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.0999108974</v>
+        <v>-0.0999108169</v>
       </c>
     </row>
     <row r="3">
@@ -457,7 +457,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-224.2972697</v>
+        <v>-224.29726971</v>
       </c>
     </row>
     <row r="4">
@@ -467,7 +467,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-224.3971806</v>
+        <v>-224.39718052</v>
       </c>
     </row>
   </sheetData>
